--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-myObservation.xlsx
+++ b/output/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
